--- a/Mods.xlsx
+++ b/Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Important Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B1431-44BB-478F-883C-80D4D4BCE314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C554D0-107F-44D1-B8C1-38766B3D306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D3CCB891-16D9-4D43-8A15-840A25E8BA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D3CCB891-16D9-4D43-8A15-840A25E8BA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Witcher 3" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>Witcher 3 Modifications</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Add UnstoppableRoachRework.XML to dx11filelist.txt and dx12filelist.txt in C:\Program Files (x86)\Steam\steamapps\common\The Witcher 3\bin\config\r4game\user_config_matrix\pc</t>
   </si>
   <si>
-    <t xml:space="preserve">Giat Famas </t>
-  </si>
-  <si>
     <t>LAER</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>Woodland Camo Paint Job</t>
-  </si>
-  <si>
-    <t>Military MRE's</t>
   </si>
   <si>
     <t>Replacer - Bottle Cap Tin</t>
@@ -246,9 +240,6 @@
     <t xml:space="preserve"> - 4K</t>
   </si>
   <si>
-    <t>Replacer - Gold Bars</t>
-  </si>
-  <si>
     <t>Miniguns Rebirth</t>
   </si>
   <si>
@@ -256,9 +247,6 @@
   </si>
   <si>
     <t>Nuka Quantum Grenade Fix</t>
-  </si>
-  <si>
-    <t>UMP-45</t>
   </si>
   <si>
     <t>Classic Holstered Weapons</t>
@@ -283,17 +271,6 @@
  - Delete 5mm Rifle Round Replace with Std 5mm</t>
   </si>
   <si>
-    <t xml:space="preserve"> Custom ESP
- - Craftable Mirv Grenade
- - Craftable Smart Grenade
- - Craftable Nuka Grenade
- - Craftable Nuka Mine
- - Craftable Legendary effects 
- - Upgraded 50 Cal Damage
- - Made Silver , Gold Bar and Pre-War Money No Longer Junk and Updated Stats
- Items Marked in Yellow are included in this Mod Folder</t>
-  </si>
-  <si>
     <t>MCM</t>
   </si>
   <si>
@@ -330,12 +307,6 @@
   </si>
   <si>
     <t>Sakura Cherry Blossom T-51 Paint</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Alternate Sounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Faction Paints</t>
   </si>
   <si>
     <t>Armor
@@ -360,12 +331,105 @@
  - Hot Rod Pink
  - Aquatic</t>
   </si>
+  <si>
+    <t>Hunting Rifle Animation Replacer</t>
+  </si>
+  <si>
+    <t>War Memorials</t>
+  </si>
+  <si>
+    <t>F.D.I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - LOOKUP FAILED Fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place Everywhere </t>
+  </si>
+  <si>
+    <t>Forced Reload Fix</t>
+  </si>
+  <si>
+    <t>Retexture - Fire Extinguisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Made Bust Of Colnal Autumn No Longer Junk</t>
+  </si>
+  <si>
+    <t>Replacer - Material Bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Changed mesh name of silver and gold to make unique in Compliance with Custom Edits Mesh Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Updated Reload Sounds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Custom ESP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Craftable Mirv Grenade
+ - Craftable Smart Grenade
+ - Craftable Nuka Grenade
+ - Craftable Nuka Mine
+ - Craftable Legendary effects 
+ - Upgraded 50 Cal Damage
+ - Made Silver , Gold Bar and Pre-War Money No Longer Junk and Updated Stats
+ - Changed mesh directory of silver and gold to make bars unique
+Changed Nuke Sounds
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CheatMaterials ESP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Added Junk Item made of 2500 of each crafting Material
+ Items Marked in Yellow are included in this Mod Folder
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Skip Kellogg's Memories</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +447,14 @@
     <font>
       <b/>
       <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -424,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9343D-2D49-489A-9A7B-052E557477CB}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -764,12 +837,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
@@ -880,9 +953,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9467125B-D02C-4168-9A87-6DE6A06E7F66}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -892,12 +965,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
@@ -915,392 +988,424 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D64">
-    <sortCondition ref="A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D68">
+    <sortCondition ref="A68"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
